--- a/9_article1_FigsTables/Tables_data/initial_boundary_conditions.xlsx
+++ b/9_article1_FigsTables/Tables_data/initial_boundary_conditions.xlsx
@@ -3,13 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1289986-E0CE-42ED-BC4B-DEDBAC155428}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9815148B-3F7A-4B6D-A31E-2E77BC4024F1}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Spinup-scenarios" sheetId="1" r:id="rId1"/>
     <sheet name="Cases" sheetId="2" r:id="rId2"/>
+    <sheet name="Spinup-scenarios_simple" sheetId="3" r:id="rId3"/>
+    <sheet name="Cases_simple" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -238,8 +240,94 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Autor</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{D1F3D9B9-0484-4A27-B907-5EBD4444714B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+          </rPr>
+          <t xml:space="preserve">
+https://github.com/amanzi/ats-demos/blob/master/06_arctic_hydrology/arctic_hydrology.ipynb</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{3FD9AAA2-C96D-480F-BB7D-4F8D91E3A13A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+          </rPr>
+          <t xml:space="preserve">
+https://github.com/amanzi/ats-demos/blob/master/06_arctic_hydrology/arctic_hydrology.ipynb</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Autor</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{AB4F11A6-8FD2-48CD-8FC1-F2BFB5F97E50}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+          </rPr>
+          <t xml:space="preserve">
+https://github.com/amanzi/ats-demos/blob/master/06_arctic_hydrology/arctic_hydrology.ipynb</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="63">
   <si>
     <t>Processes</t>
   </si>
@@ -434,7 +522,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -465,6 +553,18 @@
     </font>
     <font>
       <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
@@ -809,99 +909,177 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -1186,7 +1364,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:Q38"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B24" sqref="B24:G38"/>
     </sheetView>
   </sheetViews>
@@ -1212,108 +1390,108 @@
   <sheetData>
     <row r="1" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:17" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="3"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="31"/>
     </row>
     <row r="3" spans="2:17" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="6" t="s">
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="16" t="s">
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="16" t="s">
+      <c r="O3" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="P3" s="18" t="s">
+      <c r="P3" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="Q3" s="18" t="s">
+      <c r="Q3" s="27" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="2:17" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="15"/>
+      <c r="B4" s="24"/>
       <c r="C4" s="21"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="10" t="s">
+      <c r="D4" s="22"/>
+      <c r="E4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="L4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="20" t="s">
+      <c r="M4" s="8" t="s">
         <v>8</v>
       </c>
       <c r="N4" s="21"/>
       <c r="O4" s="21"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28"/>
     </row>
     <row r="5" spans="2:17" ht="96" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -1340,10 +1518,10 @@
       <c r="M5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="N5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="O5" s="5" t="s">
+      <c r="O5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="P5" s="1" t="s">
@@ -1354,19 +1532,19 @@
       </c>
     </row>
     <row r="6" spans="2:17" ht="72" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="5" t="s">
         <v>27</v>
       </c>
       <c r="G6" s="1" t="s">
@@ -1404,19 +1582,19 @@
       </c>
     </row>
     <row r="7" spans="2:17" ht="72" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="5" t="s">
         <v>27</v>
       </c>
       <c r="G7" s="1" t="s">
@@ -1454,19 +1632,19 @@
       </c>
     </row>
     <row r="8" spans="2:17" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="5" t="s">
         <v>27</v>
       </c>
       <c r="G8" s="1" t="s">
@@ -1505,88 +1683,88 @@
     </row>
     <row r="13" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="2:17" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="6" t="s">
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="16" t="s">
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="O14" s="16" t="s">
+      <c r="O14" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="P14" s="18" t="s">
+      <c r="P14" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="Q14" s="18" t="s">
+      <c r="Q14" s="27" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="15" spans="2:17" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="15"/>
+      <c r="B15" s="24"/>
       <c r="C15" s="21"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="10" t="s">
+      <c r="D15" s="22"/>
+      <c r="E15" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="I15" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J15" s="5" t="s">
+      <c r="J15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K15" s="5" t="s">
+      <c r="K15" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L15" s="5" t="s">
+      <c r="L15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M15" s="20" t="s">
+      <c r="M15" s="8" t="s">
         <v>8</v>
       </c>
       <c r="N15" s="21"/>
       <c r="O15" s="21"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="19"/>
+      <c r="P15" s="28"/>
+      <c r="Q15" s="28"/>
     </row>
     <row r="16" spans="2:17" ht="72" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F16" s="1" t="s">
@@ -1613,10 +1791,10 @@
       <c r="M16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="N16" s="5" t="s">
+      <c r="N16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="O16" s="5" t="s">
+      <c r="O16" s="2" t="s">
         <v>2</v>
       </c>
       <c r="P16" s="1" t="s">
@@ -1627,19 +1805,19 @@
       </c>
     </row>
     <row r="17" spans="2:17" ht="72" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F17" s="5" t="s">
         <v>27</v>
       </c>
       <c r="G17" s="1" t="s">
@@ -1677,19 +1855,19 @@
       </c>
     </row>
     <row r="18" spans="2:17" ht="72" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="F18" s="5" t="s">
         <v>27</v>
       </c>
       <c r="G18" s="1" t="s">
@@ -1727,19 +1905,19 @@
       </c>
     </row>
     <row r="19" spans="2:17" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="F19" s="5" t="s">
         <v>27</v>
       </c>
       <c r="G19" s="1" t="s">
@@ -1778,100 +1956,100 @@
     </row>
     <row r="23" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="2:17" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="27"/>
-      <c r="D24" s="29" t="s">
+      <c r="C24" s="20"/>
+      <c r="D24" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="E24" s="30" t="s">
+      <c r="E24" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="F24" s="30" t="s">
+      <c r="F24" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="G24" s="31" t="s">
+      <c r="G24" s="14" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="25" spans="2:17" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="16" t="s">
         <v>16</v>
       </c>
       <c r="C25" s="21"/>
-      <c r="D25" s="23" t="s">
+      <c r="D25" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E25" s="12" t="s">
+      <c r="E25" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F25" s="12" t="s">
+      <c r="F25" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G25" s="28" t="s">
+      <c r="G25" s="11" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="2:17" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C26" s="17"/>
-      <c r="D26" s="12" t="s">
+      <c r="C26" s="22"/>
+      <c r="D26" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="12" t="s">
+      <c r="E26" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F26" s="12" t="s">
+      <c r="F26" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G26" s="13" t="s">
+      <c r="G26" s="7" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="27" spans="2:17" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="24" t="s">
+      <c r="B27" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="E27" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F27" s="11" t="s">
+      <c r="F27" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G27" s="11" t="s">
+      <c r="G27" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="2:17" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="24"/>
-      <c r="C28" s="10" t="s">
+    <row r="28" spans="2:17" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="19"/>
+      <c r="C28" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E28" s="11" t="s">
+      <c r="E28" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F28" s="11" t="s">
+      <c r="F28" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G28" s="11" t="s">
+      <c r="G28" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="2:17" ht="72" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="24"/>
-      <c r="C29" s="10" t="s">
+    <row r="29" spans="2:17" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="19"/>
+      <c r="C29" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D29" s="1" t="s">
@@ -1887,9 +2065,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="2:17" ht="72" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="24"/>
-      <c r="C30" s="10" t="s">
+    <row r="30" spans="2:17" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="19"/>
+      <c r="C30" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D30" s="1" t="s">
@@ -1906,8 +2084,8 @@
       </c>
     </row>
     <row r="31" spans="2:17" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="24"/>
-      <c r="C31" s="10" t="s">
+      <c r="B31" s="19"/>
+      <c r="C31" s="4" t="s">
         <v>33</v>
       </c>
       <c r="D31" s="1" t="s">
@@ -1923,11 +2101,11 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="2:17" ht="72" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="24" t="s">
+    <row r="32" spans="2:17" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D32" s="1" t="s">
@@ -1943,9 +2121,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="2:7" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="24"/>
-      <c r="C33" s="10" t="s">
+    <row r="33" spans="2:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="19"/>
+      <c r="C33" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D33" s="1" t="s">
@@ -1961,9 +2139,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="2:7" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="24"/>
-      <c r="C34" s="10" t="s">
+    <row r="34" spans="2:7" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="19"/>
+      <c r="C34" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D34" s="1" t="s">
@@ -1979,9 +2157,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="2:7" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="24"/>
-      <c r="C35" s="25" t="s">
+    <row r="35" spans="2:7" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="19"/>
+      <c r="C35" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D35" s="1" t="s">
@@ -1998,11 +2176,11 @@
       </c>
     </row>
     <row r="36" spans="2:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="15" t="s">
         <v>14</v>
       </c>
       <c r="C36" s="21"/>
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E36" s="1" t="s">
@@ -2016,11 +2194,11 @@
       </c>
     </row>
     <row r="37" spans="2:7" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="16" t="s">
+      <c r="B37" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="22"/>
-      <c r="D37" s="5" t="s">
+      <c r="C37" s="16"/>
+      <c r="D37" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E37" s="1" t="s">
@@ -2034,11 +2212,11 @@
       </c>
     </row>
     <row r="38" spans="2:7" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="26" t="s">
+      <c r="B38" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C38" s="8"/>
-      <c r="D38" s="11" t="s">
+      <c r="C38" s="18"/>
+      <c r="D38" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E38" s="1" t="s">
@@ -2053,19 +2231,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:M14"/>
     <mergeCell ref="N14:N15"/>
     <mergeCell ref="O14:O15"/>
     <mergeCell ref="P14:P15"/>
@@ -2080,6 +2245,19 @@
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="P3:P4"/>
     <mergeCell ref="O3:O4"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:M14"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="B36:C36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2091,7 +2269,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35B73944-23A8-413D-A2B3-051C982E4ABD}">
   <dimension ref="B2:P36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B23" sqref="B23:F36"/>
     </sheetView>
   </sheetViews>
@@ -2115,103 +2293,103 @@
   <sheetData>
     <row r="2" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:16" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="3"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="31"/>
     </row>
     <row r="4" spans="2:16" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="6" t="s">
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="16" t="s">
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="N4" s="16" t="s">
+      <c r="N4" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="O4" s="18" t="s">
+      <c r="O4" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="P4" s="18" t="s">
+      <c r="P4" s="27" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="15"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="10" t="s">
+      <c r="B5" s="24"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="20" t="s">
+      <c r="L5" s="8" t="s">
         <v>8</v>
       </c>
       <c r="M5" s="21"/>
       <c r="N5" s="21"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="28"/>
     </row>
     <row r="6" spans="2:16" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="9">
+      <c r="B6" s="3">
         <v>1</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="5" t="s">
         <v>46</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -2249,16 +2427,16 @@
       </c>
     </row>
     <row r="7" spans="2:16" ht="179.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="9">
-        <v>2</v>
-      </c>
-      <c r="C7" s="12" t="s">
+      <c r="B7" s="3">
+        <v>2</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="5" t="s">
         <v>45</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -2296,16 +2474,16 @@
       </c>
     </row>
     <row r="8" spans="2:16" ht="147.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="9">
+      <c r="B8" s="3">
         <v>3</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="5" t="s">
         <v>47</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -2344,84 +2522,84 @@
     </row>
     <row r="14" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="2:16" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="6" t="s">
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="16" t="s">
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="N15" s="16" t="s">
+      <c r="N15" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="O15" s="18" t="s">
+      <c r="O15" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="P15" s="18" t="s">
+      <c r="P15" s="27" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="2:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="15"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="10" t="s">
+    <row r="16" spans="2:16" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="24"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H16" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="I16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J16" s="5" t="s">
+      <c r="J16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K16" s="5" t="s">
+      <c r="K16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L16" s="20" t="s">
+      <c r="L16" s="8" t="s">
         <v>8</v>
       </c>
       <c r="M16" s="21"/>
       <c r="N16" s="21"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="19"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="28"/>
     </row>
     <row r="17" spans="2:16" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="9">
+      <c r="B17" s="3">
         <v>1</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="5" t="s">
         <v>46</v>
       </c>
       <c r="F17" s="1" t="s">
@@ -2458,17 +2636,17 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="2:16" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="9">
-        <v>2</v>
-      </c>
-      <c r="C18" s="12" t="s">
+    <row r="18" spans="2:16" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="3">
+        <v>2</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="5" t="s">
         <v>45</v>
       </c>
       <c r="F18" s="1" t="s">
@@ -2506,16 +2684,16 @@
       </c>
     </row>
     <row r="19" spans="2:16" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="9">
+      <c r="B19" s="3">
         <v>3</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="5" t="s">
         <v>47</v>
       </c>
       <c r="F19" s="1" t="s">
@@ -2554,70 +2732,70 @@
     </row>
     <row r="22" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="2:16" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="27"/>
-      <c r="D23" s="29">
+      <c r="C23" s="20"/>
+      <c r="D23" s="12">
         <v>1</v>
       </c>
-      <c r="E23" s="30">
-        <v>2</v>
-      </c>
-      <c r="F23" s="31">
+      <c r="E23" s="13">
+        <v>2</v>
+      </c>
+      <c r="F23" s="14">
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="2:16" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="12" t="s">
+      <c r="C24" s="22"/>
+      <c r="D24" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="E24" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="28" t="s">
+      <c r="F24" s="11" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="25" spans="2:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="24" t="s">
+      <c r="B25" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="E25" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F25" s="11" t="s">
+      <c r="F25" s="5" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="26" spans="2:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="24"/>
-      <c r="C26" s="10" t="s">
+      <c r="B26" s="19"/>
+      <c r="C26" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E26" s="11" t="s">
+      <c r="E26" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F26" s="11" t="s">
+      <c r="F26" s="5" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="27" spans="2:16" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="24"/>
-      <c r="C27" s="10" t="s">
+      <c r="B27" s="19"/>
+      <c r="C27" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D27" s="1" t="s">
@@ -2631,8 +2809,8 @@
       </c>
     </row>
     <row r="28" spans="2:16" ht="72" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="24"/>
-      <c r="C28" s="10" t="s">
+      <c r="B28" s="19"/>
+      <c r="C28" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -2646,8 +2824,8 @@
       </c>
     </row>
     <row r="29" spans="2:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="24"/>
-      <c r="C29" s="10" t="s">
+      <c r="B29" s="19"/>
+      <c r="C29" s="4" t="s">
         <v>33</v>
       </c>
       <c r="D29" s="1" t="s">
@@ -2661,10 +2839,10 @@
       </c>
     </row>
     <row r="30" spans="2:16" ht="72" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="24" t="s">
+      <c r="B30" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D30" s="1" t="s">
@@ -2678,8 +2856,8 @@
       </c>
     </row>
     <row r="31" spans="2:16" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="24"/>
-      <c r="C31" s="10" t="s">
+      <c r="B31" s="19"/>
+      <c r="C31" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D31" s="1" t="s">
@@ -2692,9 +2870,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="2:16" ht="72" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="24"/>
-      <c r="C32" s="10" t="s">
+    <row r="32" spans="2:16" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="19"/>
+      <c r="C32" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D32" s="1" t="s">
@@ -2707,9 +2885,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="2:6" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="24"/>
-      <c r="C33" s="25" t="s">
+    <row r="33" spans="2:6" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="19"/>
+      <c r="C33" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D33" s="1" t="s">
@@ -2723,7 +2901,7 @@
       </c>
     </row>
     <row r="34" spans="2:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="15" t="s">
         <v>14</v>
       </c>
       <c r="C34" s="21"/>
@@ -2737,11 +2915,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="2:6" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="16" t="s">
+    <row r="35" spans="2:6" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C35" s="22"/>
+      <c r="C35" s="16"/>
       <c r="D35" s="1" t="s">
         <v>42</v>
       </c>
@@ -2753,11 +2931,11 @@
       </c>
     </row>
     <row r="36" spans="2:6" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="26" t="s">
+      <c r="B36" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C36" s="8"/>
-      <c r="D36" s="11" t="s">
+      <c r="C36" s="18"/>
+      <c r="D36" s="5" t="s">
         <v>55</v>
       </c>
       <c r="E36" s="1" t="s">
@@ -2769,18 +2947,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="M15:M16"/>
     <mergeCell ref="N15:N16"/>
     <mergeCell ref="O15:O16"/>
     <mergeCell ref="P15:P16"/>
@@ -2793,9 +2959,557 @@
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="P4:P5"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="B30:B33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C50D118D-5DF6-4584-AAE5-3BD1BD7D59AD}">
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="23.5703125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="24" customWidth="1"/>
+    <col min="6" max="6" width="41.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="36" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="38"/>
+      <c r="C2" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="40"/>
+      <c r="C3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="124.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="32"/>
+      <c r="B5" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="99" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="32"/>
+      <c r="B6" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="113.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="32"/>
+      <c r="B7" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="32"/>
+      <c r="B8" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="118.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="77.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="32"/>
+      <c r="B10" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="109.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="32"/>
+      <c r="B11" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="137.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="32"/>
+      <c r="B12" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="38"/>
+      <c r="C13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="121.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="37"/>
+      <c r="C14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="104.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="44"/>
+      <c r="C15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A13:B13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45821F13-32F4-4B82-B723-6AE4EEA454C1}">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection sqref="A1:E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.85546875" customWidth="1"/>
+    <col min="5" max="5" width="30.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="54">
+        <v>1</v>
+      </c>
+      <c r="D1" s="55">
+        <v>2</v>
+      </c>
+      <c r="E1" s="56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="77.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="48"/>
+      <c r="C2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="45"/>
+      <c r="B4" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="114.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="45"/>
+      <c r="B5" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="91.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="45"/>
+      <c r="B6" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="45"/>
+      <c r="B7" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="45"/>
+      <c r="B9" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="90.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="45"/>
+      <c r="B10" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="114.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="45"/>
+      <c r="B11" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="92.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="47"/>
+      <c r="C12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="53"/>
+      <c r="C13" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A12:B12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>